--- a/back-end/Data/4-Ag-blue/1-isopropanol/4-Ag-blue-1-isopropanol-output_rgb_values.xlsx
+++ b/back-end/Data/4-Ag-blue/1-isopropanol/4-Ag-blue-1-isopropanol-output_rgb_values.xlsx
@@ -55,7 +55,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,148 +533,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1047,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1062,6 +1055,7 @@
     <col min="1" max="1" width="16.8518518518519" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.0833333333333" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.8888888888889" style="2"/>
+    <col min="7" max="7" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1090,13 +1084,13 @@
         <v>0.178008185538881</v>
       </c>
       <c r="C2" s="2">
-        <v>168.998655913978</v>
+        <v>177.360483870968</v>
       </c>
       <c r="D2" s="2">
         <v>173.559139784946</v>
       </c>
       <c r="E2" s="2">
-        <v>177.360483870968</v>
+        <v>168.998655913978</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1108,13 +1102,13 @@
         <v>0.330804911323329</v>
       </c>
       <c r="C3" s="2">
-        <v>146.353494623656</v>
+        <v>150.854032258065</v>
       </c>
       <c r="D3" s="2">
         <v>153.762903225806</v>
       </c>
       <c r="E3" s="2">
-        <v>150.854032258065</v>
+        <v>146.353494623656</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1126,13 +1120,13 @@
         <v>0.690968622100955</v>
       </c>
       <c r="C4" s="2">
-        <v>140.534408602151</v>
+        <v>134.463978494624</v>
       </c>
       <c r="D4" s="2">
         <v>144.349462365591</v>
       </c>
       <c r="E4" s="2">
-        <v>134.463978494624</v>
+        <v>140.534408602151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1144,13 +1138,13 @@
         <v>1.16027285129604</v>
       </c>
       <c r="C5" s="2">
-        <v>143.491935483871</v>
+        <v>121.553225806452</v>
       </c>
       <c r="D5" s="2">
         <v>141.150537634409</v>
       </c>
       <c r="E5" s="2">
-        <v>121.553225806452</v>
+        <v>143.491935483871</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1162,13 +1156,13 @@
         <v>1.36763983628922</v>
       </c>
       <c r="C6" s="2">
-        <v>150.172043010753</v>
+        <v>104.276075268817</v>
       </c>
       <c r="D6" s="2">
         <v>140.913978494624</v>
       </c>
       <c r="E6" s="2">
-        <v>104.276075268817</v>
+        <v>150.172043010753</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1180,13 +1174,13 @@
         <v>2.03885402455662</v>
       </c>
       <c r="C7" s="2">
-        <v>150.657795698925</v>
+        <v>90.3411290322581</v>
       </c>
       <c r="D7" s="2">
         <v>138.829301075269</v>
       </c>
       <c r="E7" s="2">
-        <v>90.3411290322581</v>
+        <v>150.657795698925</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1198,13 +1192,13 @@
         <v>4.23803547066849</v>
       </c>
       <c r="C8" s="2">
-        <v>136.051075268817</v>
+        <v>44.7913978494624</v>
       </c>
       <c r="D8" s="2">
         <v>113.423655913978</v>
       </c>
       <c r="E8" s="2">
-        <v>44.7913978494624</v>
+        <v>136.051075268817</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1216,13 +1210,13 @@
         <v>7.27214188267394</v>
       </c>
       <c r="C9" s="2">
-        <v>138.295130481571</v>
+        <v>28.3613128867366</v>
       </c>
       <c r="D9" s="2">
         <v>108.378800107614</v>
       </c>
       <c r="E9" s="2">
-        <v>28.3613128867366</v>
+        <v>138.295130481571</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1234,13 +1228,13 @@
         <v>7.53407912687585</v>
       </c>
       <c r="C10" s="2">
-        <v>134.919623655914</v>
+        <v>23.3962365591398</v>
       </c>
       <c r="D10" s="2">
         <v>105.388172043011</v>
       </c>
       <c r="E10" s="2">
-        <v>23.3962365591398</v>
+        <v>134.919623655914</v>
       </c>
     </row>
   </sheetData>
